--- a/medicine/Médecine vétérinaire/Robert_Dantzer/Robert_Dantzer.xlsx
+++ b/medicine/Médecine vétérinaire/Robert_Dantzer/Robert_Dantzer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Robert Dantzer est né en 1944. Il est neurobiologiste et directeur de recherche honoraire à l'INSERM.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après des études vétérinaires et un doctorat ès sciences (1967), à Toulouse, il est directeur de recherche à l’INRA puis directeur de l’Unité de recherches de neurobiologie intégrative de l’Inserm[1], à Bordeaux.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après des études vétérinaires et un doctorat ès sciences (1967), à Toulouse, il est directeur de recherche à l’INRA puis directeur de l’Unité de recherches de neurobiologie intégrative de l’Inserm, à Bordeaux.
 Il a été membre du Comité scientifique de la santé animale et de la protection animale, à Bruxelles.
-Il est auteur de livres et d'articles sur les émotions, les relations stress-maladie et le stress en élevage intensif[2].
+Il est auteur de livres et d'articles sur les émotions, les relations stress-maladie et le stress en élevage intensif.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Les Émotions, Paris, Puf, coll. « Que-sais-je ? », [1993], 2002  (ISBN 2-13-052771-X).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les Émotions, Paris, Puf, coll. « Que-sais-je ? », , 2002  (ISBN 2-13-052771-X).
 Introduction à la psychologie de la santé, avec Marilou Bruchon-Schweitzer, Puf.
 L'Illusion psychosomatique, Seuil, coll. « Points », 1992.</t>
         </is>
